--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEC6C40-46E2-460C-81FF-2431AE66FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF943CB-986C-449A-9368-6818E1486C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>barang_kode</t>
   </si>
@@ -32,36 +32,6 @@
   </si>
   <si>
     <t>harga_jual</t>
-  </si>
-  <si>
-    <t>PAK001</t>
-  </si>
-  <si>
-    <t>PAK002</t>
-  </si>
-  <si>
-    <t>MAK001</t>
-  </si>
-  <si>
-    <t>MIN001</t>
-  </si>
-  <si>
-    <t>RMH001</t>
-  </si>
-  <si>
-    <t>Kaos</t>
-  </si>
-  <si>
-    <t>Jaket</t>
-  </si>
-  <si>
-    <t>Nasi Goreng</t>
-  </si>
-  <si>
-    <t>Teh Botol</t>
-  </si>
-  <si>
-    <t>Sapu</t>
   </si>
   <si>
     <t>kategori_id</t>
@@ -433,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,7 +419,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -464,91 +434,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>50000</v>
-      </c>
-      <c r="E2">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>150000</v>
-      </c>
-      <c r="E3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>20000</v>
-      </c>
-      <c r="E4">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>5000</v>
-      </c>
-      <c r="E5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>30000</v>
-      </c>
-      <c r="E6">
-        <v>50000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
